--- a/Spatial_data/UVic/Harrop-Archibald 2008/Shrub Herb Layer/Shrub_Herb Layer Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Shrub Herb Layer/Shrub_Herb Layer Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Shrub Herb Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2B817-E6F7-4A2A-8A3D-2ACF4E6C7255}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C75EAC-19F9-47FD-99DA-7636E6F307DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2385" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -90,22 +90,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Date that the point was gathered. </t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-  </si>
-  <si>
-    <t>Year-month-day
-E.g. 2008-11-29</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>18-06-2020</t>
-  </si>
-  <si>
     <t>Varied</t>
   </si>
   <si>
@@ -131,6 +118,112 @@
   </si>
   <si>
     <t>No formal description found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of the polygon. </t>
+  </si>
+  <si>
+    <t>Real number</t>
+  </si>
+  <si>
+    <t>DomPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant species percent cover. </t>
+  </si>
+  <si>
+    <t>CodPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codominant percentage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubSpecies </t>
+  </si>
+  <si>
+    <t>SubPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subdominant species percentage. </t>
+  </si>
+  <si>
+    <t>Other#</t>
+  </si>
+  <si>
+    <t>Percent#</t>
+  </si>
+  <si>
+    <t>Other species percentage where '#' corresponds to the associated 'other species #'.</t>
+  </si>
+  <si>
+    <t>Values: {0, 6, 11, 12, 13}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other# Attributes: the most abundant plant after 'SubSpecies'. 
+E.g. Other1, Other2, Other3…
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent# Attributes: the percentaage of the most abundant plant after 'SubSpecies'. 
+E.g. Percent1, Percent2, Percent3…
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Dominant species present. Plots of 10x10m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> were placed throughout the patches to determine shrub and herb percent coverage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Codominant species present. Plots of 10x10m2 were placed throughout the patches to determine shrub and herb percent coverage.</t>
+  </si>
+  <si>
+    <t>Subdominant species present. Plots of 10x10m2 were placed throughout the patches to determine shrub and herb percent coverage.</t>
+  </si>
+  <si>
+    <t>Other species percent, where '#' sequential increases as percentage decreases. Plots of 10x10m2 were placed throughout the patches to determine shrub and herb percent coverage.</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>23-06-2020</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year the data was recorded.</t>
   </si>
   <si>
     <r>
@@ -150,53 +243,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> {0, 6, 11, 12, 13}</t>
+      <t xml:space="preserve"> 
+yyyy. E.g. 2008. 
+NULL = neither the original meta-data nor accompanying report provided the year of creation. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Area of the polygon. </t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Real number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant species present. </t>
-  </si>
-  <si>
-    <t>DomPercent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant species percent cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codominant species present. </t>
-  </si>
-  <si>
-    <t>CodPercent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codominant percentage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubSpecies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdominant species present. </t>
-  </si>
-  <si>
-    <t>SubPercent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdominant species percentage. </t>
-  </si>
-  <si>
-    <t>Other#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other species percent, where '#' sequential increases as percentage decreases. </t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month the data was recorded.</t>
   </si>
   <si>
     <r>
@@ -207,7 +263,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Other# Attributes:</t>
+      <t>Values:</t>
     </r>
     <r>
       <rPr>
@@ -216,16 +272,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> the most abundant plant after 'SubSpecies'. 
-E.g. Other1, Other2, Other3…
-</t>
+      <t xml:space="preserve"> 
+1-12. E.g. 2=February.
+NULL = neither the original meta-data nor accompanying report provided the month of creation. </t>
     </r>
   </si>
   <si>
-    <t>Percent#</t>
-  </si>
-  <si>
-    <t>Other species percentage where '#' corresponds to the associated 'other species #'.</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day the data was recorded.</t>
   </si>
   <si>
     <r>
@@ -236,7 +292,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Percent# Attributes: </t>
+      <t>Values:</t>
     </r>
     <r>
       <rPr>
@@ -245,17 +301,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">the percentaage of the most abundant plant after 'SubSpecies'. 
-E.g. Percent1, Percent2, Percent3…
-</t>
+      <t xml:space="preserve"> 
+1-31. E.g. 15=the 15th day of a month. 
+NULL = neither the original meta-data nor accompanying report provided the day of creation.</t>
     </r>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +356,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -336,7 +402,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -359,12 +425,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,27 +766,27 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -728,7 +797,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -739,7 +808,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -750,62 +819,62 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -817,11 +886,11 @@
       <c r="E11" s="3"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
@@ -829,8 +898,8 @@
       <c r="E12" s="3"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1"/>
@@ -860,176 +929,219 @@
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="C26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="E27" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="E28" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1038,5 +1150,6 @@
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>